--- a/Files/performance-chart.xlsx
+++ b/Files/performance-chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>IronJS</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>FAILED</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -981,12 +984,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="538883584"/>
-        <c:axId val="543585920"/>
+        <c:axId val="64115712"/>
+        <c:axId val="58952512"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="538883584"/>
+        <c:axId val="64115712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543585920"/>
+        <c:crossAx val="58952512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543585920"/>
+        <c:axId val="58952512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500"/>
@@ -1070,7 +1073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538883584"/>
+        <c:crossAx val="64115712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1114,20 +1117,256 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sunspider 0.9.1 Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Runtime</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IronJS</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3480.3999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IE8</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3825.5000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Jurassic</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9320.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Jint</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>82121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="44216320"/>
+        <c:axId val="117011520"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="44216320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117011520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117011520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44216320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="bg1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="0"/>
+    </a:gradFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95248</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>128585</xdr:rowOff>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1141,6 +1380,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>608493</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1436,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,6 +2170,27 @@
       </c>
       <c r="E27">
         <v>7243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B2:B27)</f>
+        <v>3480.3999999999996</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C2:C27)</f>
+        <v>3825.5000000000005</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D2:D27)</f>
+        <v>9320.4</v>
+      </c>
+      <c r="E28">
+        <f>SUM(E5:E27)</f>
+        <v>82121</v>
       </c>
     </row>
   </sheetData>
